--- a/2总理：经济学/财政：资产负债.xlsx
+++ b/2总理：经济学/财政：资产负债.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/睡后收入/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/2总理：经济学/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="每日文字收入流" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -825,6 +825,10 @@
     <rPh sb="10" eb="11">
       <t>gu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,8 +1484,8 @@
       <c r="G2" s="3">
         <v>0.11310000000000001</v>
       </c>
-      <c r="H2" s="1">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1500,6 +1504,9 @@
       <c r="E3">
         <v>700</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1510,6 +1517,32 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>171105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
